--- a/vertx-pin/zero-ui/src/main/resources/plugin/ui/oob/cab/epic.form.xlsx
+++ b/vertx-pin/zero-ui/src/main/resources/plugin/ui/oob/cab/epic.form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ui/src/main/resources/plugin/ui/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C3AAF7-4575-7447-8B97-10CFE8AD6B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38AE0AB-495A-884B-A5A8-625C9942956C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -569,10 +569,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JSON:runtime/external/rules/rule.form/fixed/ui.form.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>modeGroup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -637,6 +633,10 @@
   </si>
   <si>
     <t>77fe27fc-2b37-434a-bdbd-fefd8583d529</t>
+  </si>
+  <si>
+    <t>JSON:plugin/ke/rule.form/ui.form.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -856,6 +856,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -874,10 +878,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A2:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="B24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1236,7 +1236,7 @@
     <col min="8" max="8" width="16" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="73" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="63.33203125" style="4" bestFit="1" customWidth="1"/>
@@ -1244,30 +1244,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
+        <v>174</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1278,13 +1278,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1292,16 +1292,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>184</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>185</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1309,16 +1309,16 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>184</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>185</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1326,16 +1326,16 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>184</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>185</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1343,16 +1343,16 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>184</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>185</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1360,16 +1360,16 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>184</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>185</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1377,16 +1377,16 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>184</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>185</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1399,11 +1399,11 @@
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="I12" s="3"/>
@@ -1567,15 +1567,15 @@
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5" t="s">
@@ -2124,17 +2124,17 @@
       <c r="B46" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="5" t="s">
@@ -2194,10 +2194,10 @@
         <v>26</v>
       </c>
       <c r="H48" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I48" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>170</v>
@@ -2234,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:11">
